--- a/records/Summary.xlsx
+++ b/records/Summary.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cochannel-Speech-Detector1\records\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianq\Cochannel-Speech-Detector\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23D6874-C7BA-4DC8-A700-27BCC70033DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FDF1C4-0489-4A6D-9B0F-6E0C70B13D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 15" sheetId="2" r:id="rId1"/>
     <sheet name="Week 16" sheetId="1" r:id="rId2"/>
     <sheet name="Week 17" sheetId="3" r:id="rId3"/>
+    <sheet name="Week 18" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="85">
   <si>
     <t>Configuration</t>
   </si>
@@ -219,14 +220,85 @@
   </si>
   <si>
     <t>SpecMasking</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>n_fft</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>augmentations</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>0.5s</t>
+  </si>
+  <si>
+    <t>Week 18 [3] -2s(0)_epoch20_acc(79.35384368896484)</t>
+  </si>
+  <si>
+    <t>Week 18 [3] -1s(1)_epoch20_acc(76.65641021728516)</t>
+  </si>
+  <si>
+    <t>Week 18 -1s -nfft512(1)_epoch20_acc(89.31282043457031)</t>
+  </si>
+  <si>
+    <t>Week 18 -1s -nfft512 -noise(1)_epoch30_acc(89.73675537109375)</t>
+  </si>
+  <si>
+    <t>Week 18 -1s -nfft512 -noise(0)_epoch20_acc(88.62222290039062)</t>
+  </si>
+  <si>
+    <t>Week 18 -1s -nfft512 -augmentations(0)_epoch20_acc(86.52307891845703)</t>
+  </si>
+  <si>
+    <t>Week 18 -1s -nfft128(0)_epoch20_acc(86.82393646240234)</t>
+  </si>
+  <si>
+    <t>Week 18 -0.5s -nfft512(0)_epoch20_acc(85.64786529541016)</t>
+  </si>
+  <si>
+    <t>Week 18 -0.5s -nfft256(0)_epoch20_acc(87.0837631225586)</t>
+  </si>
+  <si>
+    <t>Week 18 -0.5s -nfft128(0)_epoch20_acc(84.07521057128906)</t>
+  </si>
+  <si>
+    <t>Model name</t>
+  </si>
+  <si>
+    <t>num_class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -254,9 +326,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,6 +349,1090 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Week 18'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Week 18'!$B$2:$F$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>YES</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>YES</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>YES</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>NO</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>128</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2s</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1s</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1s</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1s</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1s</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1s</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1s</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.5s</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.5s</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.5s</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Week 18'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.79349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76659999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86519999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84079999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDEB-4D87-9687-7AD9A6CE32CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1898291840"/>
+        <c:axId val="1898292672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1898291840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1898292672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1898292672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1898291840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400B38F7-5198-C446-9AA2-567A091D01C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -818,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4FAF4A-D831-4D2C-8799-663F1E4FA129}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,4 +2805,277 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECF60E4-5521-487F-B2AB-FDD224152A2D}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <v>512</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>0.79349999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>512</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <v>0.76659999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>512</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>0.8931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>512</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>0.89739999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>512</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>0.88619999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>512</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7">
+        <v>0.86519999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>0.86819999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>512</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>0.85650000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>256</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>0.87080000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>0.84079999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/records/Summary.xlsx
+++ b/records/Summary.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianq\Cochannel-Speech-Detector\records\Week 16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cochannel-Speech-Detector1\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9428AF4-85B5-45BC-9C77-430194EE897F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9BA17E-3FD5-4977-8353-B985F88EAF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="18900" windowHeight="11055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 15" sheetId="2" r:id="rId1"/>
     <sheet name="Week 16" sheetId="1" r:id="rId2"/>
+    <sheet name="Week 17" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -454,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF51D1E-EAF0-4F43-A9D8-5371C7AF5A49}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -680,4 +681,16 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4FAF4A-D831-4D2C-8799-663F1E4FA129}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/records/Summary.xlsx
+++ b/records/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cochannel-Speech-Detector1\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9BA17E-3FD5-4977-8353-B985F88EAF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23D6874-C7BA-4DC8-A700-27BCC70033DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="18900" windowHeight="11055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 15" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
   <si>
     <t>Configuration</t>
   </si>
@@ -108,6 +108,117 @@
   </si>
   <si>
     <t>A model with dropout applied at a rate of 0.25</t>
+  </si>
+  <si>
+    <t>Model Configuration</t>
+  </si>
+  <si>
+    <t>Spectrogram</t>
+  </si>
+  <si>
+    <t>Mel Spectrogram</t>
+  </si>
+  <si>
+    <t>Gaindiv</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Reduced LR</t>
+  </si>
+  <si>
+    <t>Week 17 baseline - normalisation 2</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Week 17 baseline - normalisation 1</t>
+  </si>
+  <si>
+    <t>Week 17 baseline - normalisation 1 - noise 0.05</t>
+  </si>
+  <si>
+    <t>Week 17 - resnet18</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params x2</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params - wd 0.0005</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params - wd 0.001</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params - wd 0</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params - spec512</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params - spec256</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params - spec128</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params - mel256</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params - mel256 - 1s</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params - mel256 - 1s - increase batch_size</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params - mel1024</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params - gain div 0.3</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase params - dropout 0.25</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase conv - mel256 - 1s</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase conv - mel256 - 1s - reducedlr</t>
+  </si>
+  <si>
+    <t>YES (20-30)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Week 17 - normalisation 1 - increase conv - mel256 - 1s - aug(inversion)</t>
+  </si>
+  <si>
+    <t>Augmentations</t>
+  </si>
+  <si>
+    <t>Time Inversion (p=0.5)</t>
+  </si>
+  <si>
+    <t>SpecMasking</t>
   </si>
 </sst>
 </file>
@@ -187,6 +298,26 @@
     <tableColumn id="3" xr3:uid="{44B7750D-26AE-4C43-B716-87D67BBFAACC}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5735ACB-6E90-4C1B-9479-B368D3DA84DB}" name="Table3" displayName="Table3" ref="A1:K23" totalsRowShown="0">
+  <autoFilter ref="A1:K23" xr:uid="{D5735ACB-6E90-4C1B-9479-B368D3DA84DB}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{169B663E-A15A-493A-862A-335B7F9EDAF5}" name="Model Configuration"/>
+    <tableColumn id="2" xr3:uid="{43893C1E-CE28-406D-B123-353C37E9EAC1}" name="Spectrogram"/>
+    <tableColumn id="3" xr3:uid="{473ED3BD-CC2E-4A2C-8417-5FE5DCBE46A8}" name="Mel Spectrogram"/>
+    <tableColumn id="4" xr3:uid="{67B3398B-776A-408D-9573-B690FB936649}" name="Gaindiv"/>
+    <tableColumn id="5" xr3:uid="{37FE0A1F-1057-481B-8181-A56C9AA19E0C}" name="Noise"/>
+    <tableColumn id="6" xr3:uid="{5D5AEEA9-6778-4F41-9A15-EF1DE201A0CE}" name="WD"/>
+    <tableColumn id="7" xr3:uid="{555BBE8B-C10D-4404-80A7-489274F959D9}" name="Normalization"/>
+    <tableColumn id="8" xr3:uid="{86912F30-4643-40DD-8C70-C5C0AF238FEF}" name="Epochs"/>
+    <tableColumn id="9" xr3:uid="{D1DABA93-05F0-4ADE-A738-923BD1B6940F}" name="Reduced LR"/>
+    <tableColumn id="10" xr3:uid="{B6746AE3-6382-4CD0-9293-4BA16B8A6DB4}" name="Time"/>
+    <tableColumn id="11" xr3:uid="{12A3F10D-053A-44F1-8FF9-4D46E209FAC1}" name="Augmentations"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -685,12 +816,836 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4FAF4A-D831-4D2C-8799-663F1E4FA129}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>512</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1E-4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>512</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1E-4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>512</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.05</v>
+      </c>
+      <c r="F4">
+        <v>1E-4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>512</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1E-4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>512</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1E-4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>512</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1E-4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>512</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>512</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1E-3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>512</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>512</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1E-4</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>256</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1E-4</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1E-4</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>256</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1E-4</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>256</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1E-4</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>256</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1E-4</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>1024</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1E-4</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>512</v>
+      </c>
+      <c r="D18">
+        <v>0.3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1E-4</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>512</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1E-4</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>256</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1E-4</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>256</v>
+      </c>
+      <c r="D21">
+        <v>0.2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1E-4</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>256</v>
+      </c>
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1E-4</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>256</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1E-4</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/records/Summary.xlsx
+++ b/records/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianq\Cochannel-Speech-Detector\records\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jian Quan\Desktop\Cochannel-Speech-Detector1\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FDF1C4-0489-4A6D-9B0F-6E0C70B13D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15492BFB-2D0C-4FDB-BAFF-6F45C74F3C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 15" sheetId="2" r:id="rId1"/>
@@ -640,7 +640,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1398,16 +1397,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3019424</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2812,7 +2811,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G11"/>
+      <selection activeCell="F5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
